--- a/Sunk_Cost_Stories_Data_Hypotheses.xlsx
+++ b/Sunk_Cost_Stories_Data_Hypotheses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Desktop\Sunkcost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7045AE4-29F9-4F9D-B7C8-936972CBC6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F7F4DE-4383-4780-A2F3-7D30737CB8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{8E5B8031-4F08-4205-8E60-5E3941B77929}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>Sunk costs may be driven purely by the experience of any cost, regardless of choice (i.e. prob1=minprob1)</t>
   </si>
   <si>
-    <t>choice sunk cost agent</t>
-  </si>
-  <si>
     <t>outcome sunk cost agent</t>
   </si>
   <si>
@@ -135,6 +132,9 @@
   </si>
   <si>
     <t>same choice1 below varing minProb1 (binding constraint)</t>
+  </si>
+  <si>
+    <t>choice sunk cost agent (opportunity sunk cost agent)</t>
   </si>
 </sst>
 </file>
@@ -205,10 +205,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -510,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57DBB75-2BF1-4CC6-B50A-79E2BDC257B6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -569,10 +565,10 @@
         <v>5</v>
       </c>
       <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
         <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.75">
@@ -629,10 +625,10 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
         <v>20</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.75">
@@ -674,24 +670,24 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" t="s">
         <v>16</v>
-      </c>
-      <c r="H11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.75">
@@ -699,16 +695,16 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.75">
@@ -716,16 +712,16 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13" t="s">
         <v>27</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.75">
@@ -733,21 +729,21 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
       </c>
       <c r="H14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q14" t="s">
         <v>24</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.75">
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.75">
@@ -755,10 +751,10 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.75">
@@ -766,10 +762,10 @@
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -779,21 +775,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010A1F81BA1984F478D975FB258C9BC59" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0419b20f4952fe61e2682f87a2b9603b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ed9d9334-013b-4ad8-b0cb-f940246b9ecf" xmlns:ns4="b5c7baa5-bd26-4bee-a59c-6773434a7484" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="29b23501eab748e9103dbb74f0b3a8cb" ns3:_="" ns4:_="">
     <xsd:import namespace="ed9d9334-013b-4ad8-b0cb-f940246b9ecf"/>
@@ -978,32 +959,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E253BB34-D061-4EE9-B139-1FC149712E9F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="ed9d9334-013b-4ad8-b0cb-f940246b9ecf"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b5c7baa5-bd26-4bee-a59c-6773434a7484"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0FD475F-FAB7-40CF-B804-1ED5C423708D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90559FEF-42E3-49CC-953A-A0FE5B9057A0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1020,4 +991,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0FD475F-FAB7-40CF-B804-1ED5C423708D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E253BB34-D061-4EE9-B139-1FC149712E9F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="ed9d9334-013b-4ad8-b0cb-f940246b9ecf"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b5c7baa5-bd26-4bee-a59c-6773434a7484"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>